--- a/data/trans_dic/P36B13_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,63</t>
+          <t>85,01; 90,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,3; 89,98</t>
+          <t>86,37; 89,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,39; 89,56</t>
+          <t>86,49; 89,6</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,35; 85,44</t>
+          <t>81,27; 85,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,01; 89,7</t>
+          <t>86,16; 89,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 87,12</t>
+          <t>84,27; 87,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,81; 88,03</t>
+          <t>82,13; 88,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,22; 92,32</t>
+          <t>88,06; 92,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,86; 89,6</t>
+          <t>85,65; 89,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,12; 86,05</t>
+          <t>82,99; 86,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,18; 89,5</t>
+          <t>87,16; 89,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,57; 87,59</t>
+          <t>85,62; 87,49</t>
         </is>
       </c>
     </row>
